--- a/TestData/Staple.xlsx
+++ b/TestData/Staple.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neogis\D Drive\FREEDOM\Python\CloudAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398F33DC-B41A-4B1A-82F5-7631788A8060}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC1DEDC-CF33-4CDD-A782-6A6E7A7F2C65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6765" yWindow="3840" windowWidth="21600" windowHeight="11505" xr2:uid="{458AF82A-ED03-4F93-994B-60962EF35F93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{458AF82A-ED03-4F93-994B-60962EF35F93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -498,7 +498,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A17" sqref="A17:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TestData/Staple.xlsx
+++ b/TestData/Staple.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neogis\D Drive\FREEDOM\Python\CloudAutomation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neogis\D Drive\FREEDOM\Python\STL_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC1DEDC-CF33-4CDD-A782-6A6E7A7F2C65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2827AAEB-8CFD-4497-A601-367610903560}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{458AF82A-ED03-4F93-994B-60962EF35F93}"/>
+    <workbookView xWindow="690" yWindow="2655" windowWidth="25995" windowHeight="13095" xr2:uid="{458AF82A-ED03-4F93-994B-60962EF35F93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -698,14 +698,189 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D03B8D5-BAB8-450E-A664-CABADEFF022A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D26"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6">
+        <v>67</v>
+      </c>
+      <c r="C6">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <v>67</v>
+      </c>
+      <c r="E6">
+        <v>67</v>
+      </c>
+      <c r="F6">
+        <v>67</v>
+      </c>
+      <c r="G6">
+        <v>67</v>
+      </c>
+      <c r="H6">
+        <v>67</v>
+      </c>
+      <c r="I6">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>